--- a/潮玩微信小程序爬虫/repolar系列信息.xlsx
+++ b/潮玩微信小程序爬虫/repolar系列信息.xlsx
@@ -392,10 +392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
@@ -405,10 +405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5372</v>
+        <v>5368</v>
       </c>
       <c r="C3" t="n">
-        <v>8099</v>
+        <v>8179</v>
       </c>
     </row>
     <row r="4">
@@ -418,10 +418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C4" t="n">
-        <v>5756</v>
+        <v>5779</v>
       </c>
     </row>
   </sheetData>
@@ -466,10 +466,8 @@
           <t>整盒</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>700.0000</t>
-        </is>
+      <c r="B2" t="n">
+        <v>700</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -481,10 +479,8 @@
           <t>隐藏款徽章-山竹</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>500.0000</t>
-        </is>
+      <c r="B3" t="n">
+        <v>489</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -496,10 +492,8 @@
           <t>隐藏款徽章-葡萄</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>320.0000</t>
-        </is>
+      <c r="B4" t="n">
+        <v>320</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -511,10 +505,8 @@
           <t>蓝莓徽章</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>80.0000</t>
-        </is>
+      <c r="B5" t="n">
+        <v>80</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -526,10 +518,8 @@
           <t>香蕉徽章</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>70.0000</t>
-        </is>
+      <c r="B6" t="n">
+        <v>70</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -541,10 +531,8 @@
           <t>青柠徽章</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>79.0000</t>
-        </is>
+      <c r="B7" t="n">
+        <v>79</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -556,10 +544,8 @@
           <t>牛油果徽章</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>89.0000</t>
-        </is>
+      <c r="B8" t="n">
+        <v>89</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -571,10 +557,8 @@
           <t>草莓徽章</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>89.0000</t>
-        </is>
+      <c r="B9" t="n">
+        <v>89</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -586,10 +570,8 @@
           <t>椰子徽章</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>89.0000</t>
-        </is>
+      <c r="B10" t="n">
+        <v>89</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -601,10 +583,8 @@
           <t>苹果徽章</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>80.0000</t>
-        </is>
+      <c r="B11" t="n">
+        <v>80</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -616,10 +596,8 @@
           <t>西瓜徽章</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>95.0000</t>
-        </is>
+      <c r="B12" t="n">
+        <v>95</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -631,10 +609,8 @@
           <t>桃子徽章</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>89.0000</t>
-        </is>
+      <c r="B13" t="n">
+        <v>89</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -646,10 +622,8 @@
           <t>菠萝徽章</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>70.0000</t>
-        </is>
+      <c r="B14" t="n">
+        <v>70</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -661,10 +635,8 @@
           <t>桔子徽章</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>85.0000</t>
-        </is>
+      <c r="B15" t="n">
+        <v>85</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -676,10 +648,8 @@
           <t>猕猴桃徽章</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>69.0000</t>
-        </is>
+      <c r="B16" t="n">
+        <v>69</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -727,10 +697,8 @@
           <t>整盒-Repolar水果系列</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>699.0000</t>
-        </is>
+      <c r="B2" t="n">
+        <v>630</v>
       </c>
       <c r="C2" t="n">
         <v>45</v>
@@ -742,13 +710,11 @@
           <t>大隐藏-山竹</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>638.0000</t>
-        </is>
+      <c r="B3" t="n">
+        <v>666</v>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -757,13 +723,11 @@
           <t>小隐藏-葡萄</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>399.0000</t>
-        </is>
+      <c r="B4" t="n">
+        <v>438</v>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -772,13 +736,11 @@
           <t>草莓</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>52.0000</t>
-        </is>
+      <c r="B5" t="n">
+        <v>53</v>
       </c>
       <c r="C5" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
@@ -787,13 +749,11 @@
           <t>牛油果</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>52.0000</t>
-        </is>
+      <c r="B6" t="n">
+        <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7">
@@ -802,13 +762,11 @@
           <t>椰子</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>83.0000</t>
-        </is>
+      <c r="B7" t="n">
+        <v>83</v>
       </c>
       <c r="C7" t="n">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8">
@@ -817,13 +775,11 @@
           <t>柠檬</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>54.0000</t>
-        </is>
+      <c r="B8" t="n">
+        <v>53</v>
       </c>
       <c r="C8" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9">
@@ -832,13 +788,11 @@
           <t>西瓜</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>86.0000</t>
-        </is>
+      <c r="B9" t="n">
+        <v>81</v>
       </c>
       <c r="C9" t="n">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10">
@@ -847,13 +801,11 @@
           <t>橙子</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>68.0000</t>
-        </is>
+      <c r="B10" t="n">
+        <v>68</v>
       </c>
       <c r="C10" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -862,13 +814,11 @@
           <t>蓝莓</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>66.0000</t>
-        </is>
+      <c r="B11" t="n">
+        <v>64</v>
       </c>
       <c r="C11" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12">
@@ -877,13 +827,11 @@
           <t>香蕉</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>59.0000</t>
-        </is>
+      <c r="B12" t="n">
+        <v>58</v>
       </c>
       <c r="C12" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13">
@@ -892,13 +840,11 @@
           <t>菠萝</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>67.0000</t>
-        </is>
+      <c r="B13" t="n">
+        <v>68</v>
       </c>
       <c r="C13" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14">
@@ -907,13 +853,11 @@
           <t>猕猴桃</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>65.0000</t>
-        </is>
+      <c r="B14" t="n">
+        <v>64</v>
       </c>
       <c r="C14" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15">
@@ -922,13 +866,11 @@
           <t>苹果</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>72.0000</t>
-        </is>
+      <c r="B15" t="n">
+        <v>70</v>
       </c>
       <c r="C15" t="n">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16">
@@ -937,13 +879,11 @@
           <t>桃子</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>104.0000</t>
-        </is>
+      <c r="B16" t="n">
+        <v>104</v>
       </c>
       <c r="C16" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -988,10 +928,8 @@
           <t>整盒-动物盲盒</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>980.0000</t>
-        </is>
+      <c r="B2" t="n">
+        <v>880</v>
       </c>
       <c r="C2" t="n">
         <v>13</v>
@@ -1003,13 +941,11 @@
           <t>猴子</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>70.0000</t>
-        </is>
+      <c r="B3" t="n">
+        <v>69</v>
       </c>
       <c r="C3" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
@@ -1018,13 +954,11 @@
           <t>狗</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>60.0000</t>
-        </is>
+      <c r="B4" t="n">
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -1033,10 +967,8 @@
           <t>兔子</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>100.0000</t>
-        </is>
+      <c r="B5" t="n">
+        <v>100</v>
       </c>
       <c r="C5" t="n">
         <v>152</v>
@@ -1048,10 +980,8 @@
           <t>考拉</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>59.0000</t>
-        </is>
+      <c r="B6" t="n">
+        <v>59</v>
       </c>
       <c r="C6" t="n">
         <v>139</v>
@@ -1063,13 +993,11 @@
           <t>大象</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>60.0000</t>
-        </is>
+      <c r="B7" t="n">
+        <v>60</v>
       </c>
       <c r="C7" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
@@ -1078,13 +1006,11 @@
           <t>猩猩</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>35.0000</t>
-        </is>
+      <c r="B8" t="n">
+        <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -1093,13 +1019,11 @@
           <t>猪</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>140.0000</t>
-        </is>
+      <c r="B9" t="n">
+        <v>199</v>
       </c>
       <c r="C9" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10">
@@ -1108,13 +1032,11 @@
           <t>牛</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>68.0000</t>
-        </is>
+      <c r="B10" t="n">
+        <v>75</v>
       </c>
       <c r="C10" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1045,8 @@
           <t>猫</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>78.0000</t>
-        </is>
+      <c r="B11" t="n">
+        <v>80</v>
       </c>
       <c r="C11" t="n">
         <v>147</v>
@@ -1138,13 +1058,11 @@
           <t>老虎</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>79.0000</t>
-        </is>
+      <c r="B12" t="n">
+        <v>83</v>
       </c>
       <c r="C12" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -1153,13 +1071,11 @@
           <t>松鼠</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>50.0000</t>
-        </is>
+      <c r="B13" t="n">
+        <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1168,10 +1084,8 @@
           <t>羊</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>75.0000</t>
-        </is>
+      <c r="B14" t="n">
+        <v>89</v>
       </c>
       <c r="C14" t="n">
         <v>144</v>
@@ -1183,10 +1097,8 @@
           <t>小隐藏熊猫</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>500.0000</t>
-        </is>
+      <c r="B15" t="n">
+        <v>520</v>
       </c>
       <c r="C15" t="n">
         <v>10</v>
@@ -1198,10 +1110,8 @@
           <t>大隐藏独角兽</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>85.0000</t>
-        </is>
+      <c r="B16" t="n">
+        <v>85</v>
       </c>
       <c r="C16" t="n">
         <v>7</v>
